--- a/Project_Management/Sprint 6/Burndown chart.xlsx
+++ b/Project_Management/Sprint 6/Burndown chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GL704G\Desktop\freecol-SE-exercise\Project_Management\Sprint 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DE97BA-7E62-49A3-A79F-CC37B9657B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F4BD19-08A6-4B94-8BE8-4C6877CD158E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Day 5</t>
-  </si>
-  <si>
-    <t>Day 6</t>
   </si>
   <si>
     <t>Day 7</t>
@@ -766,19 +763,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -872,9 +869,6 @@
                 <c:pt idx="5">
                   <c:v>Day 5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Day 6</c:v>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 7</c:v>
                 </c:pt>
@@ -891,25 +885,25 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -969,9 +963,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Day 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Day 6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 7</c:v>
@@ -2176,7 +2167,7 @@
   <dimension ref="B1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2243,26 +2234,22 @@
         <v>3</v>
       </c>
       <c r="E4" s="4">
-        <v>45242</v>
+        <v>45257</v>
       </c>
       <c r="F4" s="4">
-        <v>45243</v>
+        <v>45258</v>
       </c>
       <c r="G4" s="4">
-        <v>45244</v>
+        <v>45259</v>
       </c>
       <c r="H4" s="4">
-        <v>45245</v>
+        <v>45260</v>
       </c>
       <c r="I4" s="4">
-        <v>45246</v>
-      </c>
-      <c r="J4" s="4">
-        <v>45247</v>
-      </c>
-      <c r="K4" s="4">
-        <v>45249</v>
-      </c>
+        <v>45261</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="33"/>
@@ -2285,11 +2272,9 @@
       <c r="I5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
@@ -2297,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="24">
         <v>4</v>
@@ -2319,7 +2304,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="25">
         <v>2</v>
@@ -2330,7 +2315,9 @@
       <c r="H7" s="9">
         <v>1</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
@@ -2339,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="25">
         <v>4</v>
@@ -2350,7 +2337,9 @@
       <c r="H8" s="9">
         <v>1</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="9">
+        <v>3</v>
+      </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
@@ -2359,18 +2348,24 @@
         <v>4</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="25">
         <v>3</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="9"/>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
       <c r="G9" s="9">
         <v>1</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
@@ -2379,12 +2374,14 @@
         <v>5</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="26">
         <v>4</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9">
         <v>1</v>
@@ -2392,7 +2389,9 @@
       <c r="H10" s="9">
         <v>1</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
@@ -2401,7 +2400,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="26">
         <v>3</v>
@@ -2488,7 +2487,7 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="2">
@@ -2496,11 +2495,11 @@
       </c>
       <c r="E16" s="14">
         <f t="shared" ref="E16:K16" si="0">SUM(E6:E15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="14">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="14">
         <f t="shared" si="0"/>
@@ -2508,11 +2507,11 @@
       </c>
       <c r="H16" s="14">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16" s="14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="0"/>
@@ -2525,7 +2524,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="16">
@@ -2534,36 +2533,36 @@
       </c>
       <c r="E17" s="17">
         <f t="shared" ref="E17:K17" si="1">D17-SUM(E6:E15)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="15">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G17" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H17" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I17" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="J17" s="13">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="K17" s="13">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="28">

--- a/Project_Management/Sprint 6/Burndown chart.xlsx
+++ b/Project_Management/Sprint 6/Burndown chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GL704G\Desktop\freecol-SE-exercise\Project_Management\Sprint 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F4BD19-08A6-4B94-8BE8-4C6877CD158E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A68374B-BCAD-4865-A6E2-6DDEB529235E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Day 5</t>
-  </si>
-  <si>
-    <t>Day 7</t>
   </si>
   <si>
     <t>Remaining Effort</t>
@@ -850,7 +847,7 @@
             <c:strRef>
               <c:f>'Burndown Chart'!$D$5:$K$5</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Day 0</c:v>
                 </c:pt>
@@ -868,9 +865,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Day 5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Day 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -945,7 +939,7 @@
             <c:strRef>
               <c:f>'Burndown Chart'!$D$5:$K$5</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Day 0</c:v>
                 </c:pt>
@@ -963,9 +957,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Day 5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Day 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2167,7 +2158,7 @@
   <dimension ref="B1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2273,16 +2264,14 @@
         <v>9</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="20">
         <v>1</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="24">
         <v>4</v>
@@ -2304,7 +2293,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="25">
         <v>2</v>
@@ -2326,7 +2315,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="25">
         <v>4</v>
@@ -2348,7 +2337,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="25">
         <v>3</v>
@@ -2374,7 +2363,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="26">
         <v>4</v>
@@ -2400,7 +2389,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="26">
         <v>3</v>
@@ -2487,7 +2476,7 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="2">
@@ -2524,7 +2513,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="16">
@@ -2562,7 +2551,7 @@
     </row>
     <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="28">
